--- a/medicine/Mort/Mort_de_Tamir_Rice/Mort_de_Tamir_Rice.xlsx
+++ b/medicine/Mort/Mort_de_Tamir_Rice/Mort_de_Tamir_Rice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 22 novembre 2014, Tamir Rice, un garçon afro-américain de douze ans, est tué à Cleveland, par Timothy Loehmann, un policier blanc de vingt-six ans. Rice tenait une réplique de pistolet que le policier a jugé comme une arme réelle[1].
+Le 22 novembre 2014, Tamir Rice, un garçon afro-américain de douze ans, est tué à Cleveland, par Timothy Loehmann, un policier blanc de vingt-six ans. Rice tenait une réplique de pistolet que le policier a jugé comme une arme réelle.
 Néanmoins, l'enquête montre que Loehmann a abattu l'adolescent presque immédiatement après son arrivée sur les lieux. Avec un collègue, ils répondaient à un appel de police concernant un homme « probablement mineur » qui avait une arme à feu « probablement fausse » sur lui dans un parc de la ville. Ces informations n'ont cependant pas été transmise par le central d'appel aux hommes sur le terrain. L'officier a tiré deux fois, touchant Rice une fois au torse alors que leur voiture de patrouille n'est pas encore arrêtée. Rice meurt de ses blessures le lendemain.
-Une vidéo de surveillance de l'incident est publiée par la police quatre jours après la fusillade. Portée en justice, l'affaire est médiatisée car elle se produit à la suite de plusieurs autres fusillades très médiatisées d'hommes afro-américains par des policiers. Malgré un jugement qui a disculpé les policiers, cela s'est conclut dans un second temps par un règlement à l'amiable pour 6 millions de dollars[2].
+Une vidéo de surveillance de l'incident est publiée par la police quatre jours après la fusillade. Portée en justice, l'affaire est médiatisée car elle se produit à la suite de plusieurs autres fusillades très médiatisées d'hommes afro-américains par des policiers. Malgré un jugement qui a disculpé les policiers, cela s'est conclut dans un second temps par un règlement à l'amiable pour 6 millions de dollars.
 </t>
         </is>
       </c>
